--- a/covid_concentration.xlsx
+++ b/covid_concentration.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FAAFE-7A9F-F54A-8B4B-34E67BCC91EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC86083-1C4A-C044-9093-4BC4C5D16AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -47,6 +58,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,15 +406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -418,7 +430,7 @@
         <v>45149</v>
       </c>
       <c r="B2">
-        <v>26030898.146000002</v>
+        <v>260.30898146000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -426,7 +438,7 @@
         <v>45150</v>
       </c>
       <c r="B3">
-        <v>26741871.201000001</v>
+        <v>267.41871201000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -434,7 +446,7 @@
         <v>45151</v>
       </c>
       <c r="B4">
-        <v>27403547.879999999</v>
+        <v>274.03547879999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -442,7 +454,7 @@
         <v>45152</v>
       </c>
       <c r="B5">
-        <v>28013391.988000002</v>
+        <v>280.13391988000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -450,7 +462,7 @@
         <v>45153</v>
       </c>
       <c r="B6">
-        <v>28568867.328000002</v>
+        <v>285.68867327999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -458,7 +470,7 @@
         <v>45154</v>
       </c>
       <c r="B7">
-        <v>29067437.704</v>
+        <v>290.67437704000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -466,7 +478,7 @@
         <v>45155</v>
       </c>
       <c r="B8">
-        <v>29506883.508000001</v>
+        <v>295.06883507999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -474,7 +486,7 @@
         <v>45156</v>
       </c>
       <c r="B9">
-        <v>29886251.488000002</v>
+        <v>298.86251487999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,7 +494,7 @@
         <v>45157</v>
       </c>
       <c r="B10">
-        <v>30204904.978</v>
+        <v>302.04904978000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -490,7 +502,7 @@
         <v>45158</v>
       </c>
       <c r="B11">
-        <v>30462207.313000001</v>
+        <v>304.62207312999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -498,7 +510,7 @@
         <v>45159</v>
       </c>
       <c r="B12">
-        <v>30657521.828000002</v>
+        <v>306.57521828</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -506,7 +518,7 @@
         <v>45160</v>
       </c>
       <c r="B13">
-        <v>30790211.857999999</v>
+        <v>307.90211857999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -514,7 +526,7 @@
         <v>45161</v>
       </c>
       <c r="B14">
-        <v>30859640.738000002</v>
+        <v>308.59640738000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -522,7 +534,7 @@
         <v>45162</v>
       </c>
       <c r="B15">
-        <v>30865171.802999999</v>
+        <v>308.65171802999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +542,7 @@
         <v>45163</v>
       </c>
       <c r="B16">
-        <v>30806168.388</v>
+        <v>308.06168387999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -538,7 +550,7 @@
         <v>45164</v>
       </c>
       <c r="B17">
-        <v>30681993.828000002</v>
+        <v>306.81993828000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -546,7 +558,7 @@
         <v>45165</v>
       </c>
       <c r="B18">
-        <v>30492011.458999999</v>
+        <v>304.92011458999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -554,7 +566,7 @@
         <v>45166</v>
       </c>
       <c r="B19">
-        <v>30235584.614</v>
+        <v>302.35584613999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -562,7 +574,7 @@
         <v>45167</v>
       </c>
       <c r="B20">
-        <v>29913044.914999999</v>
+        <v>299.13044915</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -570,7 +582,7 @@
         <v>45168</v>
       </c>
       <c r="B21">
-        <v>29528597.120999999</v>
+        <v>295.28597121000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +590,7 @@
         <v>45169</v>
       </c>
       <c r="B22">
-        <v>29087414.278000001</v>
+        <v>290.87414278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,7 +598,7 @@
         <v>45170</v>
       </c>
       <c r="B23">
-        <v>28594669.432999998</v>
+        <v>285.94669432999996</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -594,7 +606,7 @@
         <v>45171</v>
       </c>
       <c r="B24">
-        <v>28055535.629999999</v>
+        <v>280.55535629999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +614,7 @@
         <v>45172</v>
       </c>
       <c r="B25">
-        <v>27475185.914999999</v>
+        <v>274.75185914999997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -610,7 +622,7 @@
         <v>45173</v>
       </c>
       <c r="B26">
-        <v>26858793.333999999</v>
+        <v>268.58793334000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,7 +630,7 @@
         <v>45174</v>
       </c>
       <c r="B27">
-        <v>26211530.932</v>
+        <v>262.11530931999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,7 +638,7 @@
         <v>45175</v>
       </c>
       <c r="B28">
-        <v>25538571.756000001</v>
+        <v>255.38571756000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +646,7 @@
         <v>45176</v>
       </c>
       <c r="B29">
-        <v>24844998.368000001</v>
+        <v>248.44998368</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,7 +654,7 @@
         <v>45177</v>
       </c>
       <c r="B30">
-        <v>24135531.407000002</v>
+        <v>241.35531407000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -650,7 +662,7 @@
         <v>45178</v>
       </c>
       <c r="B31">
-        <v>23414801.026000001</v>
+        <v>234.14801026000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +670,7 @@
         <v>45179</v>
       </c>
       <c r="B32">
-        <v>22687437.381999999</v>
+        <v>226.87437381999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -666,7 +678,7 @@
         <v>45180</v>
       </c>
       <c r="B33">
-        <v>21958070.629000001</v>
+        <v>219.58070628999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -674,7 +686,7 @@
         <v>45181</v>
       </c>
       <c r="B34">
-        <v>21231330.923</v>
+        <v>212.31330923000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -682,7 +694,7 @@
         <v>45182</v>
       </c>
       <c r="B35">
-        <v>20511848.418000001</v>
+        <v>205.11848418000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,7 +702,7 @@
         <v>45183</v>
       </c>
       <c r="B36">
-        <v>19803769.866</v>
+        <v>198.03769866000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -698,7 +710,7 @@
         <v>45184</v>
       </c>
       <c r="B37">
-        <v>19109308.395</v>
+        <v>191.09308394999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -706,7 +718,7 @@
         <v>45185</v>
       </c>
       <c r="B38">
-        <v>18430193.732999999</v>
+        <v>184.30193732999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,7 +726,7 @@
         <v>45186</v>
       </c>
       <c r="B39">
-        <v>17768155.603</v>
+        <v>177.68155603</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -722,7 +734,7 @@
         <v>45187</v>
       </c>
       <c r="B40">
-        <v>17124923.730999999</v>
+        <v>171.24923730999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -730,7 +742,7 @@
         <v>45188</v>
       </c>
       <c r="B41">
-        <v>16502227.842</v>
+        <v>165.02227841999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -738,7 +750,7 @@
         <v>45189</v>
       </c>
       <c r="B42">
-        <v>15901797.661</v>
+        <v>159.01797661000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +758,7 @@
         <v>45190</v>
       </c>
       <c r="B43">
-        <v>15325362.914999999</v>
+        <v>153.25362914999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -754,7 +766,7 @@
         <v>45191</v>
       </c>
       <c r="B44">
-        <v>14774653.327</v>
+        <v>147.74653326999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -762,7 +774,7 @@
         <v>45192</v>
       </c>
       <c r="B45">
-        <v>14251398.623</v>
+        <v>142.51398623</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -770,7 +782,7 @@
         <v>45193</v>
       </c>
       <c r="B46">
-        <v>13757328.528999999</v>
+        <v>137.57328529</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -778,7 +790,7 @@
         <v>45194</v>
       </c>
       <c r="B47">
-        <v>13294172.768999999</v>
+        <v>132.94172768999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -786,7 +798,7 @@
         <v>45195</v>
       </c>
       <c r="B48">
-        <v>12862974.367000001</v>
+        <v>128.62974367000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -794,7 +806,7 @@
         <v>45196</v>
       </c>
       <c r="B49">
-        <v>12462029.538000001</v>
+        <v>124.62029538</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -802,7 +814,7 @@
         <v>45197</v>
       </c>
       <c r="B50">
-        <v>12088947.793</v>
+        <v>120.88947793</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -810,7 +822,7 @@
         <v>45198</v>
       </c>
       <c r="B51">
-        <v>11741338.645</v>
+        <v>117.41338644999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,7 +830,7 @@
         <v>45199</v>
       </c>
       <c r="B52">
-        <v>11416811.607000001</v>
+        <v>114.16811607000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -826,7 +838,7 @@
         <v>45200</v>
       </c>
       <c r="B53">
-        <v>11112976.192</v>
+        <v>111.12976191999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -834,7 +846,7 @@
         <v>45201</v>
       </c>
       <c r="B54">
-        <v>10827441.91</v>
+        <v>108.2744191</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -842,7 +854,7 @@
         <v>45202</v>
       </c>
       <c r="B55">
-        <v>10558054.686000001</v>
+        <v>105.58054686000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +862,7 @@
         <v>45203</v>
       </c>
       <c r="B56">
-        <v>10303606.08</v>
+        <v>103.0360608</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -858,7 +870,7 @@
         <v>45204</v>
       </c>
       <c r="B57">
-        <v>10063124.063999999</v>
+        <v>100.63124063999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -866,7 +878,7 @@
         <v>45205</v>
       </c>
       <c r="B58">
-        <v>9835636.6089999992</v>
+        <v>98.356366089999995</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +886,7 @@
         <v>45206</v>
       </c>
       <c r="B59">
-        <v>9620171.6860000007</v>
+        <v>96.201716860000005</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +894,7 @@
         <v>45207</v>
       </c>
       <c r="B60">
-        <v>9415757.2679999992</v>
+        <v>94.157572679999987</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +902,7 @@
         <v>45208</v>
       </c>
       <c r="B61">
-        <v>9221421.3249999993</v>
+        <v>92.214213249999986</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +910,7 @@
         <v>45209</v>
       </c>
       <c r="B62">
-        <v>9036422.7589999996</v>
+        <v>90.364227589999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -906,7 +918,7 @@
         <v>45210</v>
       </c>
       <c r="B63">
-        <v>8860944.1980000008</v>
+        <v>88.609441980000014</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -914,7 +926,7 @@
         <v>45211</v>
       </c>
       <c r="B64">
-        <v>8695399.1989999991</v>
+        <v>86.953991989999992</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +934,7 @@
         <v>45212</v>
       </c>
       <c r="B65">
-        <v>8540201.318</v>
+        <v>85.402013179999997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +942,7 @@
         <v>45213</v>
       </c>
       <c r="B66">
-        <v>8395764.1140000001</v>
+        <v>83.957641140000007</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +950,7 @@
         <v>45214</v>
       </c>
       <c r="B67">
-        <v>8262501.1430000002</v>
+        <v>82.625011430000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,7 +958,7 @@
         <v>45215</v>
       </c>
       <c r="B68">
-        <v>8140825.9639999997</v>
+        <v>81.408259639999997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +966,7 @@
         <v>45216</v>
       </c>
       <c r="B69">
-        <v>8031152.1339999996</v>
+        <v>80.311521339999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +974,7 @@
         <v>45217</v>
       </c>
       <c r="B70">
-        <v>7933893.21</v>
+        <v>79.338932099999994</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +982,7 @@
         <v>45218</v>
       </c>
       <c r="B71">
-        <v>7849462.7489999998</v>
+        <v>78.494627489999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +990,7 @@
         <v>45219</v>
       </c>
       <c r="B72">
-        <v>7778274.3099999996</v>
+        <v>77.78274309999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +998,7 @@
         <v>45220</v>
       </c>
       <c r="B73">
-        <v>7720741.4479999999</v>
+        <v>77.207414479999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -994,7 +1006,7 @@
         <v>45221</v>
       </c>
       <c r="B74">
-        <v>7677277.7230000002</v>
+        <v>76.772777230000003</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1014,7 @@
         <v>45222</v>
       </c>
       <c r="B75">
-        <v>7648296.6900000004</v>
+        <v>76.482966900000008</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1010,7 +1022,7 @@
         <v>45223</v>
       </c>
       <c r="B76">
-        <v>7634184.8099999996</v>
+        <v>76.341848099999993</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1030,7 @@
         <v>45224</v>
       </c>
       <c r="B77">
-        <v>7635220.1490000002</v>
+        <v>76.352201489999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1038,7 @@
         <v>45225</v>
       </c>
       <c r="B78">
-        <v>7651653.6720000003</v>
+        <v>76.516536720000005</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1046,7 @@
         <v>45226</v>
       </c>
       <c r="B79">
-        <v>7683736.3480000002</v>
+        <v>76.837363480000008</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1054,7 @@
         <v>45227</v>
       </c>
       <c r="B80">
-        <v>7731719.1449999996</v>
+        <v>77.317191449999996</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1062,7 @@
         <v>45228</v>
       </c>
       <c r="B81">
-        <v>7795853.0290000001</v>
+        <v>77.958530289999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1070,7 @@
         <v>45229</v>
       </c>
       <c r="B82">
-        <v>7876388.9680000003</v>
+        <v>78.763889680000005</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1078,7 @@
         <v>45230</v>
       </c>
       <c r="B83">
-        <v>7973320.8660000004</v>
+        <v>79.733208660000003</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1086,7 @@
         <v>45231</v>
       </c>
       <c r="B84">
-        <v>8085614.3669999996</v>
+        <v>80.856143669999994</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1082,7 +1094,7 @@
         <v>45232</v>
       </c>
       <c r="B85">
-        <v>8211978.0549999997</v>
+        <v>82.119780550000002</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1102,7 @@
         <v>45233</v>
       </c>
       <c r="B86">
-        <v>8351120.5089999996</v>
+        <v>83.51120508999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,7 +1110,7 @@
         <v>45234</v>
       </c>
       <c r="B87">
-        <v>8501750.3129999992</v>
+        <v>85.017503129999994</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1118,7 @@
         <v>45235</v>
       </c>
       <c r="B88">
-        <v>8662576.0480000004</v>
+        <v>86.625760480000011</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1126,7 @@
         <v>45236</v>
       </c>
       <c r="B89">
-        <v>8832306.2960000001</v>
+        <v>88.323062960000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1134,7 @@
         <v>45237</v>
       </c>
       <c r="B90">
-        <v>9009727.0429999996</v>
+        <v>90.097270429999995</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1142,7 @@
         <v>45238</v>
       </c>
       <c r="B91">
-        <v>9193933.9020000007</v>
+        <v>91.939339020000006</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1150,7 @@
         <v>45239</v>
       </c>
       <c r="B92">
-        <v>9384099.8880000003</v>
+        <v>93.840998880000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1158,7 @@
         <v>45240</v>
       </c>
       <c r="B93">
-        <v>9579398.0189999994</v>
+        <v>95.793980189999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1166,7 @@
         <v>45241</v>
       </c>
       <c r="B94">
-        <v>9779001.3120000008</v>
+        <v>97.790013120000012</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1174,7 @@
         <v>45242</v>
       </c>
       <c r="B95">
-        <v>9982082.7819999997</v>
+        <v>99.820827819999991</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1182,7 @@
         <v>45243</v>
       </c>
       <c r="B96">
-        <v>10187815.447000001</v>
+        <v>101.87815447000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1190,7 @@
         <v>45244</v>
       </c>
       <c r="B97">
-        <v>10395372.324999999</v>
+        <v>103.95372325</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1198,7 @@
         <v>45245</v>
       </c>
       <c r="B98">
-        <v>10603926.43</v>
+        <v>106.0392643</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1206,7 @@
         <v>45246</v>
       </c>
       <c r="B99">
-        <v>10812662.768999999</v>
+        <v>108.12662768999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1214,7 @@
         <v>45247</v>
       </c>
       <c r="B100">
-        <v>11020814.297</v>
+        <v>110.20814297</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1222,7 @@
         <v>45248</v>
       </c>
       <c r="B101">
-        <v>11227625.960999999</v>
+        <v>112.27625961</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1230,7 @@
         <v>45249</v>
       </c>
       <c r="B102">
-        <v>11432342.704</v>
+        <v>114.32342704</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1238,7 @@
         <v>45250</v>
       </c>
       <c r="B103">
-        <v>11634209.471000001</v>
+        <v>116.34209471000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1246,7 @@
         <v>45251</v>
       </c>
       <c r="B104">
-        <v>11832471.207</v>
+        <v>118.32471207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1254,7 @@
         <v>45252</v>
       </c>
       <c r="B105">
-        <v>12026372.857999999</v>
+        <v>120.26372857999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1262,7 @@
         <v>45253</v>
       </c>
       <c r="B106">
-        <v>12215395.831</v>
+        <v>122.15395831000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1270,7 @@
         <v>45254</v>
       </c>
       <c r="B107">
-        <v>12399967.393999999</v>
+        <v>123.99967393999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1278,7 @@
         <v>45255</v>
       </c>
       <c r="B108">
-        <v>12580751.278000001</v>
+        <v>125.80751278000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1286,7 @@
         <v>45256</v>
       </c>
       <c r="B109">
-        <v>12758411.216</v>
+        <v>127.58411216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1294,7 @@
         <v>45257</v>
       </c>
       <c r="B110">
-        <v>12933610.937999999</v>
+        <v>129.33610937999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1302,7 @@
         <v>45258</v>
       </c>
       <c r="B111">
-        <v>13107014.176000001</v>
+        <v>131.07014176000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1310,7 @@
         <v>45259</v>
       </c>
       <c r="B112">
-        <v>13279284.661</v>
+        <v>132.79284661</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1318,7 @@
         <v>45260</v>
       </c>
       <c r="B113">
-        <v>13451086.125</v>
+        <v>134.51086125</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1326,7 @@
         <v>45261</v>
       </c>
       <c r="B114">
-        <v>13623082.300000001</v>
+        <v>136.23082300000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1334,7 @@
         <v>45262</v>
       </c>
       <c r="B115">
-        <v>13795936.915999999</v>
+        <v>137.95936915999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1342,7 @@
         <v>45263</v>
       </c>
       <c r="B116">
-        <v>13970313.705</v>
+        <v>139.70313705000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1350,7 @@
         <v>45264</v>
       </c>
       <c r="B117">
-        <v>14146876.4</v>
+        <v>141.46876399999999</v>
       </c>
     </row>
   </sheetData>

--- a/covid_concentration.xlsx
+++ b/covid_concentration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC86083-1C4A-C044-9093-4BC4C5D16AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E539E3B-6A18-9744-9E54-77933843DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
